--- a/TESTFILES/ECMSPIPELINE/CorrectNamesMappings.xlsx
+++ b/TESTFILES/ECMSPIPELINE/CorrectNamesMappings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sadisfaction570/Desktop/SHIP-ONTOLOGY/TESTFILES/ECMSPIPELINE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{86DBC512-57A6-E540-931B-8760F2D31CF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{967ACDE4-14D5-324D-B99F-3170947271FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1820" windowWidth="27240" windowHeight="16440" xr2:uid="{719D5166-1BDA-A247-BA43-7EBCA6C90069}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" xr2:uid="{719D5166-1BDA-A247-BA43-7EBCA6C90069}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="162">
   <si>
     <t>Turtle Name</t>
   </si>
@@ -456,6 +456,72 @@
   </si>
   <si>
     <t>winding_temperature_rise_K</t>
+  </si>
+  <si>
+    <t>stator_current_d_i_sd</t>
+  </si>
+  <si>
+    <t>stator_current_d_ids</t>
+  </si>
+  <si>
+    <t>stator_current_d_isd</t>
+  </si>
+  <si>
+    <t>stator_current_q_i_sq</t>
+  </si>
+  <si>
+    <t>stator_current_q_iqs</t>
+  </si>
+  <si>
+    <t>stator_current_q_isq</t>
+  </si>
+  <si>
+    <t>stator_current_space_vector_is</t>
+  </si>
+  <si>
+    <t>stator_current_vector_i_s</t>
+  </si>
+  <si>
+    <t>stator_transient_inductance_L_s_prime</t>
+  </si>
+  <si>
+    <t>stator_voltage_d_u_sd</t>
+  </si>
+  <si>
+    <t>stator_voltage_d_ud</t>
+  </si>
+  <si>
+    <t>stator_voltage_q_u_sq</t>
+  </si>
+  <si>
+    <t>stator_voltage_q_uq</t>
+  </si>
+  <si>
+    <t>stator_voltage_reference_u_s_ref</t>
+  </si>
+  <si>
+    <t>stator_voltage_space_vector_us</t>
+  </si>
+  <si>
+    <t>stator_voltage_vector_u_s</t>
+  </si>
+  <si>
+    <t>tau_el</t>
+  </si>
+  <si>
+    <t>tau_therm</t>
+  </si>
+  <si>
+    <t>temperature_adjustment_factor_fT</t>
+  </si>
+  <si>
+    <t>torque_constant_KT</t>
+  </si>
+  <si>
+    <t>type_designation</t>
+  </si>
+  <si>
+    <t>DONTEXIST</t>
   </si>
 </sst>
 </file>
@@ -851,10 +917,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB62FEBD-8123-B545-9C1F-02BDFCFDD714}">
-  <dimension ref="A1:B110"/>
+  <dimension ref="A1:B131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="B111" sqref="B111:B131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1743,6 +1809,174 @@
         <v>139</v>
       </c>
     </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>140</v>
+      </c>
+      <c r="B111" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>141</v>
+      </c>
+      <c r="B112" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>142</v>
+      </c>
+      <c r="B113" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>143</v>
+      </c>
+      <c r="B114" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>144</v>
+      </c>
+      <c r="B115" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>145</v>
+      </c>
+      <c r="B116" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>146</v>
+      </c>
+      <c r="B117" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>147</v>
+      </c>
+      <c r="B118" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>148</v>
+      </c>
+      <c r="B119" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>149</v>
+      </c>
+      <c r="B120" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>150</v>
+      </c>
+      <c r="B121" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>151</v>
+      </c>
+      <c r="B122" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>152</v>
+      </c>
+      <c r="B123" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>153</v>
+      </c>
+      <c r="B124" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>154</v>
+      </c>
+      <c r="B125" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>155</v>
+      </c>
+      <c r="B126" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>156</v>
+      </c>
+      <c r="B127" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>157</v>
+      </c>
+      <c r="B128" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>158</v>
+      </c>
+      <c r="B129" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>159</v>
+      </c>
+      <c r="B130" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>160</v>
+      </c>
+      <c r="B131" t="s">
+        <v>161</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
